--- a/2022/SAMSUNG/SEPTEMBER/29.09.2022/SAMSUNG Bank Statement Sep-2022.xlsx
+++ b/2022/SAMSUNG/SEPTEMBER/29.09.2022/SAMSUNG Bank Statement Sep-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3848,6 +3848,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3875,22 +3887,10 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6976,67 +6976,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="429" t="s">
+      <c r="A1" s="433" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="429"/>
-      <c r="C1" s="429"/>
-      <c r="D1" s="429"/>
-      <c r="E1" s="429"/>
-      <c r="F1" s="429"/>
-      <c r="G1" s="429"/>
-      <c r="H1" s="429"/>
-      <c r="I1" s="429"/>
-      <c r="J1" s="429"/>
-      <c r="K1" s="429"/>
-      <c r="L1" s="429"/>
-      <c r="M1" s="429"/>
-      <c r="N1" s="429"/>
-      <c r="O1" s="429"/>
-      <c r="P1" s="429"/>
-      <c r="Q1" s="429"/>
+      <c r="B1" s="433"/>
+      <c r="C1" s="433"/>
+      <c r="D1" s="433"/>
+      <c r="E1" s="433"/>
+      <c r="F1" s="433"/>
+      <c r="G1" s="433"/>
+      <c r="H1" s="433"/>
+      <c r="I1" s="433"/>
+      <c r="J1" s="433"/>
+      <c r="K1" s="433"/>
+      <c r="L1" s="433"/>
+      <c r="M1" s="433"/>
+      <c r="N1" s="433"/>
+      <c r="O1" s="433"/>
+      <c r="P1" s="433"/>
+      <c r="Q1" s="433"/>
     </row>
     <row r="2" spans="1:24" s="59" customFormat="1" ht="18">
-      <c r="A2" s="430" t="s">
+      <c r="A2" s="434" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="430"/>
-      <c r="C2" s="430"/>
-      <c r="D2" s="430"/>
-      <c r="E2" s="430"/>
-      <c r="F2" s="430"/>
-      <c r="G2" s="430"/>
-      <c r="H2" s="430"/>
-      <c r="I2" s="430"/>
-      <c r="J2" s="430"/>
-      <c r="K2" s="430"/>
-      <c r="L2" s="430"/>
-      <c r="M2" s="430"/>
-      <c r="N2" s="430"/>
-      <c r="O2" s="430"/>
-      <c r="P2" s="430"/>
-      <c r="Q2" s="430"/>
+      <c r="B2" s="434"/>
+      <c r="C2" s="434"/>
+      <c r="D2" s="434"/>
+      <c r="E2" s="434"/>
+      <c r="F2" s="434"/>
+      <c r="G2" s="434"/>
+      <c r="H2" s="434"/>
+      <c r="I2" s="434"/>
+      <c r="J2" s="434"/>
+      <c r="K2" s="434"/>
+      <c r="L2" s="434"/>
+      <c r="M2" s="434"/>
+      <c r="N2" s="434"/>
+      <c r="O2" s="434"/>
+      <c r="P2" s="434"/>
+      <c r="Q2" s="434"/>
     </row>
     <row r="3" spans="1:24" s="60" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="431" t="s">
+      <c r="A3" s="435" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="432"/>
-      <c r="C3" s="432"/>
-      <c r="D3" s="432"/>
-      <c r="E3" s="432"/>
-      <c r="F3" s="432"/>
-      <c r="G3" s="432"/>
-      <c r="H3" s="432"/>
-      <c r="I3" s="432"/>
-      <c r="J3" s="432"/>
-      <c r="K3" s="432"/>
-      <c r="L3" s="432"/>
-      <c r="M3" s="432"/>
-      <c r="N3" s="432"/>
-      <c r="O3" s="432"/>
-      <c r="P3" s="432"/>
-      <c r="Q3" s="433"/>
+      <c r="B3" s="436"/>
+      <c r="C3" s="436"/>
+      <c r="D3" s="436"/>
+      <c r="E3" s="436"/>
+      <c r="F3" s="436"/>
+      <c r="G3" s="436"/>
+      <c r="H3" s="436"/>
+      <c r="I3" s="436"/>
+      <c r="J3" s="436"/>
+      <c r="K3" s="436"/>
+      <c r="L3" s="436"/>
+      <c r="M3" s="436"/>
+      <c r="N3" s="436"/>
+      <c r="O3" s="436"/>
+      <c r="P3" s="436"/>
+      <c r="Q3" s="437"/>
       <c r="S3" s="45"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -7045,50 +7045,50 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="61" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="434" t="s">
+      <c r="A4" s="438" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="436" t="s">
+      <c r="B4" s="440" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="438" t="s">
+      <c r="C4" s="429" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="438" t="s">
+      <c r="D4" s="429" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="438" t="s">
+      <c r="E4" s="429" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="438" t="s">
+      <c r="F4" s="429" t="s">
         <v>276</v>
       </c>
-      <c r="G4" s="438" t="s">
+      <c r="G4" s="429" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="438" t="s">
+      <c r="H4" s="429" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="438"/>
-      <c r="J4" s="438" t="s">
+      <c r="I4" s="429"/>
+      <c r="J4" s="429" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="438" t="s">
+      <c r="K4" s="429" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="438" t="s">
+      <c r="L4" s="429" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="438" t="s">
+      <c r="M4" s="429" t="s">
         <v>278</v>
       </c>
-      <c r="N4" s="438" t="s">
+      <c r="N4" s="429" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="442" t="s">
+      <c r="O4" s="431" t="s">
         <v>110</v>
       </c>
-      <c r="P4" s="440" t="s">
+      <c r="P4" s="442" t="s">
         <v>292</v>
       </c>
       <c r="Q4" s="116" t="s">
@@ -7101,22 +7101,22 @@
       <c r="W4" s="63"/>
     </row>
     <row r="5" spans="1:24" s="61" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="435"/>
-      <c r="B5" s="437"/>
-      <c r="C5" s="439"/>
-      <c r="D5" s="439"/>
-      <c r="E5" s="439"/>
-      <c r="F5" s="439"/>
-      <c r="G5" s="439"/>
-      <c r="H5" s="439"/>
-      <c r="I5" s="439"/>
-      <c r="J5" s="439"/>
-      <c r="K5" s="439"/>
-      <c r="L5" s="439"/>
-      <c r="M5" s="439"/>
-      <c r="N5" s="439"/>
-      <c r="O5" s="443"/>
-      <c r="P5" s="441"/>
+      <c r="A5" s="439"/>
+      <c r="B5" s="441"/>
+      <c r="C5" s="430"/>
+      <c r="D5" s="430"/>
+      <c r="E5" s="430"/>
+      <c r="F5" s="430"/>
+      <c r="G5" s="430"/>
+      <c r="H5" s="430"/>
+      <c r="I5" s="430"/>
+      <c r="J5" s="430"/>
+      <c r="K5" s="430"/>
+      <c r="L5" s="430"/>
+      <c r="M5" s="430"/>
+      <c r="N5" s="430"/>
+      <c r="O5" s="432"/>
+      <c r="P5" s="443"/>
       <c r="Q5" s="117" t="s">
         <v>36</v>
       </c>
@@ -10203,8 +10203,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -10222,6 +10220,8 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -10234,8 +10234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CR1319"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -14031,7 +14031,7 @@
       </c>
       <c r="F36" s="166">
         <f>F33-D91+K93</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G36" s="129"/>
       <c r="H36" s="134"/>
@@ -18234,7 +18234,7 @@
       </c>
       <c r="C73" s="245"/>
       <c r="D73" s="246">
-        <v>331408</v>
+        <v>327408</v>
       </c>
       <c r="E73" s="248" t="s">
         <v>321</v>
@@ -20227,7 +20227,7 @@
       <c r="C91" s="447"/>
       <c r="D91" s="192">
         <f>SUM(D37:D90)</f>
-        <v>5813684</v>
+        <v>5809684</v>
       </c>
       <c r="E91" s="188"/>
       <c r="F91" s="128"/>
@@ -20435,7 +20435,7 @@
       <c r="C93" s="446"/>
       <c r="D93" s="192">
         <f>D91+L93</f>
-        <v>5813684</v>
+        <v>5809684</v>
       </c>
       <c r="E93" s="188"/>
       <c r="F93" s="128"/>
@@ -30661,7 +30661,7 @@
   </sheetPr>
   <dimension ref="A1:R215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
